--- a/biology/Médecine/Recherche_clinique_infirmière/Recherche_clinique_infirmière.xlsx
+++ b/biology/Médecine/Recherche_clinique_infirmière/Recherche_clinique_infirmière.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Recherche_clinique_infirmi%C3%A8re</t>
+          <t>Recherche_clinique_infirmière</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La recherche clinique infirmière est une discipline des soins infirmiers, relevant du rôle propre infirmier. Son activité se centre sur la mise en théorie de concepts de soins en lien avec les courants de pensée infirmière actuels.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Recherche_clinique_infirmi%C3%A8re</t>
+          <t>Recherche_clinique_infirmière</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette notion attenante à la science infirmière, est utilisée afin de décrire les évidences et les faits relevés dans le cadre de la pratique des soins infirmiers dans les différents domaines de la santé.
 La recherche clinique infirmière s'est développée au travers du temps, des premières interventions de Florence Nightingale jusqu'à ce jour, où beaucoup d'infirmières, comme Martha Rogers ou Rosette Poletti travaillent en tant que chercheuses dans certaines universités afin de proposer des modèles de soins infirmiers utilisés lors de la réalisation d'un soin de santé.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Recherche_clinique_infirmi%C3%A8re</t>
+          <t>Recherche_clinique_infirmière</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,12 +560,14 @@
           <t>Procédés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La recherche clinique infirmière s'intéresse principalement à deux des domaines des méthodes scientifiques :
 la méthode quantitative : basée sur le paradigme du positivisme logique. Elle est centrée sur les résultats pour la personne qui sont mesurables, la plupart du temps à l'aide de diagrammes de soins décrits lors de l'évaluation infirmière. La méthode scientifique dominante est l'essai clinique randomisé.
 Des enquêtes quantitatives cherchant à mettre en évidence des facteurs de causalité ou des liens entre des évènements de soins peuvent aussi être réalisées. La méthode repose alors sur l'épidémiologie. Le traitement des données se fait par l'analyse statistique.
-la méthode qualitative : basée sur le paradigme de la phénoménologie, de la grounded theory et de l'ethnographie. Elle examine l'expérience de santé de ceux à qui sont prodigués le soin infirmier, se recentrant en particulier sur les valeurs de chaque individu. Les méthodes de recherches les plus couramment utilisées sont l'interview, l'étude de cas et les réunions de consommateurs[1].Elle s'intéresse également par l'observation in-situ aux pratiques professionnelles de soins réellement mises en œuvre en fonction du mandat infirmier. Elle utilise alors une observation empirique des pratiques par la méthode de l'observation participante issues de l'ethnographie.</t>
+la méthode qualitative : basée sur le paradigme de la phénoménologie, de la grounded theory et de l'ethnographie. Elle examine l'expérience de santé de ceux à qui sont prodigués le soin infirmier, se recentrant en particulier sur les valeurs de chaque individu. Les méthodes de recherches les plus couramment utilisées sont l'interview, l'étude de cas et les réunions de consommateurs.Elle s'intéresse également par l'observation in-situ aux pratiques professionnelles de soins réellement mises en œuvre en fonction du mandat infirmier. Elle utilise alors une observation empirique des pratiques par la méthode de l'observation participante issues de l'ethnographie.</t>
         </is>
       </c>
     </row>
